--- a/data/evaluation/evaluation_North_Winter_Beets.xlsx
+++ b/data/evaluation/evaluation_North_Winter_Beets.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2212.213614502405</v>
+        <v>2201.476507584166</v>
       </c>
       <c r="C3" t="n">
-        <v>12254967.65534762</v>
+        <v>12211586.88016943</v>
       </c>
       <c r="D3" t="n">
-        <v>3500.70959311789</v>
+        <v>3494.508102747714</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.02877186287701949</v>
+        <v>-0.02513016245411825</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2083.612291527444</v>
+        <v>2197.708740743703</v>
       </c>
       <c r="C4" t="n">
-        <v>11368312.64061799</v>
+        <v>12070909.63863383</v>
       </c>
       <c r="D4" t="n">
-        <v>3371.692844939763</v>
+        <v>3474.321464492576</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04566046178396144</v>
+        <v>-0.01332068307325507</v>
       </c>
     </row>
     <row r="5">
